--- a/Administracion de proyectos/04_Planeación del proyecto/Administración de riesgos/01-RefaccionariaNVW_Herramienta para la Administración de Riesgos.xlsx
+++ b/Administracion de proyectos/04_Planeación del proyecto/Administración de riesgos/01-RefaccionariaNVW_Herramienta para la Administración de Riesgos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INGENIERIA\3ER CUATRIMESTRE\Desarrollo de aplicaciones\2do Parcial\Act04_JDDF\Administración de Proyectos II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Desktop\01-RefaccionariaNVW\Administracion de proyectos\04_Planeación del proyecto\Administración de riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificacion" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Grafico" sheetId="10" r:id="rId5"/>
     <sheet name="Exposure" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detalle del Riesgo'!$I$1:$I$782</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$A$11:$J$41</definedName>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="419">
   <si>
     <t xml:space="preserve">El informe del resumen de los riesgos sintetiza el estado total de los riesgos en el proyecto.  </t>
   </si>
@@ -1644,6 +1647,12 @@
   </si>
   <si>
     <t>Contratar a los proveedores</t>
+  </si>
+  <si>
+    <t>BDCM</t>
+  </si>
+  <si>
+    <t>Se priorizaron todos los riesgos en el apartado resumen</t>
   </si>
 </sst>
 </file>
@@ -2892,7 +2901,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_RM_Risks" xfId="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3449,6 +3500,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3480,13 +3532,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3571,6 +3623,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3602,7 +3655,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3693,6 +3746,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3815,6 +3869,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3846,13 +3901,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3871,12 +3926,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-9212784"/>
-        <c:axId val="-86589408"/>
-        <c:axId val="-10388192"/>
+        <c:axId val="-1497325840"/>
+        <c:axId val="-1498243152"/>
+        <c:axId val="-1498128592"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-9212784"/>
+        <c:axId val="-1497325840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3976,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86589408"/>
+        <c:crossAx val="-1498243152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3931,7 +3986,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-86589408"/>
+        <c:axId val="-1498243152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,13 +4031,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9212784"/>
+        <c:crossAx val="-1497325840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-10388192"/>
+        <c:axId val="-1498128592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,7 +4082,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86589408"/>
+        <c:crossAx val="-1498243152"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5441,7 +5496,7 @@
                   <a:pPr algn="ctr" rtl="0">
                     <a:defRPr sz="1000"/>
                   </a:pPr>
-                  <a:t>3</a:t>
+                  <a:t>5</a:t>
                 </a:fld>
                 <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -5498,7 +5553,7 @@
                   <a:pPr algn="ctr" rtl="0">
                     <a:defRPr sz="1000"/>
                   </a:pPr>
-                  <a:t>5</a:t>
+                  <a:t>7</a:t>
                 </a:fld>
                 <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -5799,7 +5854,7 @@
                   <a:pPr algn="ctr" rtl="0">
                     <a:defRPr sz="1000"/>
                   </a:pPr>
-                  <a:t>0</a:t>
+                  <a:t>1</a:t>
                 </a:fld>
                 <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -6440,6 +6495,770 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Identificacion"/>
+      <sheetName val="Guia de Usuario"/>
+      <sheetName val="Detalle del Riesgo"/>
+      <sheetName val="Resumen"/>
+      <sheetName val="Grafico"/>
+      <sheetName val="Exposure"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>RG_001</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Mala definición de tiempos a la hora de entregar resultados</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Sin cambios</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>RG_022</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v xml:space="preserve">Hardware necesario para realizar el proyecto no se tiene a tiempo </v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>Lider del Proyecto</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Sin cambios</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>RG_055</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Falta de comunicación en el equipo de desarrollo</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>Líder del proyecto</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82" t="str">
+            <v>RG_063</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>el usuario cambia los requerimientos</v>
+          </cell>
+          <cell r="F82" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="F88" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108" t="str">
+            <v>RG_071</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>El contratista no entrega material de calidad</v>
+          </cell>
+          <cell r="F108" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="F114" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115" t="str">
+            <v>1-3 meses</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134" t="str">
+            <v>RG_084</v>
+          </cell>
+          <cell r="D134" t="str">
+            <v>Mala asignación de los requerimientos a los roles</v>
+          </cell>
+          <cell r="F134" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D136" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138" t="str">
+            <v>Análista</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="F140" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141" t="str">
+            <v>1-3 meses</v>
+          </cell>
+          <cell r="D141" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160" t="str">
+            <v>RG_093</v>
+          </cell>
+          <cell r="D160" t="str">
+            <v>Los componentes de software elegidos no trabajan adecuadamente</v>
+          </cell>
+          <cell r="F160" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D162" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="C164" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="F166" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D167" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="C186" t="str">
+            <v>RG_115</v>
+          </cell>
+          <cell r="D186" t="str">
+            <v>El hackeo del sistema</v>
+          </cell>
+          <cell r="F186" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D188" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="C190" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="F192" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="C193" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D193" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="C212" t="str">
+            <v>RG_130</v>
+          </cell>
+          <cell r="D212" t="str">
+            <v>Los miembros del equipo conflictivo no son despedidos</v>
+          </cell>
+          <cell r="F212" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="C214" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D214" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="C216" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="F218" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="C219" t="str">
+            <v>1-3 meses</v>
+          </cell>
+          <cell r="D219" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="C238" t="str">
+            <v>RG_144</v>
+          </cell>
+          <cell r="D238" t="str">
+            <v>No se establece la dirección de donde están cituados los archivos</v>
+          </cell>
+          <cell r="F238" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="C240" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D240" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="C242" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="F244" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="C245" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D245" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="C264" t="str">
+            <v>RG_154</v>
+          </cell>
+          <cell r="D264" t="str">
+            <v xml:space="preserve"> Mal control por el asegurador de la calidad</v>
+          </cell>
+          <cell r="F264" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="C266" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D266" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="C268" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="F270" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="C271" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D271" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="C290" t="str">
+            <v>RG_042</v>
+          </cell>
+          <cell r="D290" t="str">
+            <v>Los desarrolladores no estan familiarizados con las herramientas a utilizar</v>
+          </cell>
+          <cell r="F290" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="C292" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D292" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="C294" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="F296" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="C297" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D297" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="C316" t="str">
+            <v>RG_145</v>
+          </cell>
+          <cell r="D316" t="str">
+            <v>No se cuenta con un repositorio</v>
+          </cell>
+          <cell r="F316" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="C318" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D318" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="C320" t="str">
+            <v>Lider de proyecto</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="F322" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="C323" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D323" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="C342" t="str">
+            <v>RG_121</v>
+          </cell>
+          <cell r="D342" t="str">
+            <v>Estrés del personal</v>
+          </cell>
+          <cell r="F342" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="C344" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D344" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="C346" t="str">
+            <v>Lider de proyecto</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="F348" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="C349" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D349" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="C368" t="str">
+            <v>RG_131</v>
+          </cell>
+          <cell r="D368" t="str">
+            <v>Los miembros del equipo no siguen las politicas del proyecto</v>
+          </cell>
+          <cell r="F368" t="str">
+            <v>Mitigar</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="C370" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D370" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="C372" t="str">
+            <v>Lider de Proyecto</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="F374" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="C375" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D375" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="C394" t="str">
+            <v>RG_148</v>
+          </cell>
+          <cell r="D394" t="str">
+            <v>Mucho tiempo empleado para conocer el proceso de calidad</v>
+          </cell>
+          <cell r="F394" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="C396" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D396" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="C398" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="F400" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="C401" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D401" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="C420" t="str">
+            <v>RG_095</v>
+          </cell>
+          <cell r="D420" t="str">
+            <v>El producto no cumple con los requerimientos  funcionales</v>
+          </cell>
+          <cell r="F420" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="C422" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D422" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="C424" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="F426" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="C427" t="str">
+            <v>1-3 meses</v>
+          </cell>
+          <cell r="D427" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="C446" t="str">
+            <v>RG_114</v>
+          </cell>
+          <cell r="D446" t="str">
+            <v>Robos de equipo</v>
+          </cell>
+          <cell r="F446" t="str">
+            <v>Prevenir</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="C448" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D448" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="C450" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="F452" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="C453" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D453" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="C472" t="str">
+            <v>RG_118</v>
+          </cell>
+          <cell r="D472" t="str">
+            <v>La competencia</v>
+          </cell>
+          <cell r="F472" t="str">
+            <v>Investigar</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="C474" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D474" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="C476" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="F478" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="C479" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D479" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="C498" t="str">
+            <v>RG_051</v>
+          </cell>
+          <cell r="D498" t="str">
+            <v>Se cuenta con poca memoria ram en algunos equipos de computo</v>
+          </cell>
+          <cell r="F498" t="str">
+            <v>Investigar</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="C500" t="str">
+            <v>06/18/16</v>
+          </cell>
+          <cell r="D500" t="str">
+            <v>Y</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="C502" t="str">
+            <v>Líder del Proyecto</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="F504" t="str">
+            <v>06/18/16</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="C505" t="str">
+            <v>&lt;1 mes</v>
+          </cell>
+          <cell r="D505" t="str">
+            <v>Nuevo</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6729,8 +7548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6945,7 +7764,20 @@
       <c r="C30" s="194"/>
       <c r="D30" s="198"/>
     </row>
-    <row r="31" spans="1:4" s="198" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" s="198" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="198">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B31" s="200">
+        <v>42553</v>
+      </c>
+      <c r="C31" s="198" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="198" t="s">
+        <v>418</v>
+      </c>
+    </row>
     <row r="32" spans="1:4" s="198" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
@@ -7832,7 +8664,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A767" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
@@ -21677,75 +22509,75 @@
   <autoFilter ref="I1:I782"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D656 D5 D32 D708 D682 D84 D110 D734 D162 D136 D214 D188 D266 D240 D292 D422 D396 D474 D448 D526 D500 D578 D552 D630 D604 D58 D760">
-    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D713 D10 D89 D635 D687 D37 D141 D739 D167 D115 D245 D193 D271 D219 D297 D453 D401 D479 D427 D557 D505 D583 D531 D661 D609 D63 D765">
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Worsening"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Improving"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F738 F712 F530 F556 F582 F608 F634 F660 F686 F764">
-    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>C526</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F531 F557 F583 F609 F635 F661 F687 F713 F739 F765">
-    <cfRule type="cellIs" dxfId="22" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>C526</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>XFD1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>C32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>C1048574</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>XFD28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D318 D344 D370">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D323 D349 D375">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Worsening"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Improving"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21808,8 +22640,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21921,7 +22753,7 @@
       </c>
       <c r="G6" s="121">
         <f>Exposure!C5</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="121">
         <f>Exposure!D5</f>
@@ -21933,7 +22765,7 @@
       </c>
       <c r="J6" s="91">
         <f>Exposure!F5</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -21949,7 +22781,7 @@
       </c>
       <c r="G7" s="122">
         <f>Exposure!C7</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" s="122">
         <f>Exposure!D7</f>
@@ -21961,7 +22793,7 @@
       </c>
       <c r="J7" s="94">
         <f>Exposure!F7</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -22005,7 +22837,7 @@
       </c>
       <c r="G9" s="123">
         <f>SUM(G6:G8)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" s="123">
         <f>SUM(H6:H8)</f>
@@ -22017,7 +22849,7 @@
       </c>
       <c r="J9" s="95">
         <f>SUM(J6:J8)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -22066,841 +22898,821 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D3)="&lt;","",'Detalle del Riesgo'!C3)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D3)="&lt;","",'[1]Detalle del Riesgo'!C3)</f>
         <v>RG_001</v>
       </c>
       <c r="B12" s="156">
-        <f>IF($A12="","",'Detalle del Riesgo'!F5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="157" t="str">
-        <f>IF($A12="","",LEFT('Detalle del Riesgo'!D10,1))</f>
+        <f>IF($A12="","",LEFT('[1]Detalle del Riesgo'!D10,1))</f>
         <v>S</v>
       </c>
       <c r="D12" s="158" t="str">
-        <f>IF($A12="","",'Detalle del Riesgo'!D3)</f>
+        <f>IF($A12="","",'[1]Detalle del Riesgo'!D3)</f>
         <v>Mala definición de tiempos a la hora de entregar resultados</v>
       </c>
       <c r="E12" s="159" t="str">
-        <f>IF($A12="","",'Detalle del Riesgo'!C7)</f>
+        <f>IF($A12="","",'[1]Detalle del Riesgo'!C7)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F12" s="157" t="str">
-        <f>IF(OR($A12="",$H12="Retirar"),"",'Detalle del Riesgo'!D5)</f>
+        <f>IF(OR($A12="",$H12="Retirar"),"",'[1]Detalle del Riesgo'!D5)</f>
         <v>R</v>
       </c>
       <c r="G12" s="157" t="str">
-        <f>IF($A12="","",'Detalle del Riesgo'!C10)</f>
+        <f>IF($A12="","",'[1]Detalle del Riesgo'!C10)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H12" s="157" t="str">
-        <f>IF($A12= "","",'Detalle del Riesgo'!F3)</f>
+        <f>IF($A12= "","",'[1]Detalle del Riesgo'!F3)</f>
         <v>Mitigar</v>
       </c>
       <c r="I12" s="160" t="str">
-        <f>IF($A12= "","",'Detalle del Riesgo'!C5)</f>
+        <f>IF($A12= "","",'[1]Detalle del Riesgo'!C5)</f>
         <v>06/18/16</v>
       </c>
       <c r="J12" s="161" t="str">
-        <f>IF($A12= "","",'Detalle del Riesgo'!F9)</f>
+        <f>IF($A12= "","",'[1]Detalle del Riesgo'!F9)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D30)="&lt;","",'Detalle del Riesgo'!C30)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D30)="&lt;","",'[1]Detalle del Riesgo'!C30)</f>
         <v>RG_022</v>
       </c>
       <c r="B13" s="156">
-        <f>IF($A13="","",'Detalle del Riesgo'!F32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="157" t="str">
-        <f>IF($A13="","",LEFT('Detalle del Riesgo'!D37,1))</f>
+        <f>IF($A13="","",LEFT('[1]Detalle del Riesgo'!D37,1))</f>
         <v>S</v>
       </c>
       <c r="D13" s="158" t="str">
-        <f>IF($A13="","",'Detalle del Riesgo'!D30)</f>
+        <f>IF($A13="","",'[1]Detalle del Riesgo'!D30)</f>
         <v xml:space="preserve">Hardware necesario para realizar el proyecto no se tiene a tiempo </v>
       </c>
       <c r="E13" s="159" t="str">
-        <f>IF($A13="","",'Detalle del Riesgo'!C34)</f>
+        <f>IF($A13="","",'[1]Detalle del Riesgo'!C34)</f>
         <v>Lider del Proyecto</v>
       </c>
       <c r="F13" s="157" t="str">
-        <f>IF(OR($A13="",$H13="Retired"),"",'Detalle del Riesgo'!D32)</f>
+        <f>IF(OR($A13="",$H13="Retired"),"",'[1]Detalle del Riesgo'!D32)</f>
         <v>R</v>
       </c>
       <c r="G13" s="157" t="str">
-        <f>IF($A13="","",'Detalle del Riesgo'!C37)</f>
+        <f>IF($A13="","",'[1]Detalle del Riesgo'!C37)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H13" s="157" t="str">
-        <f>IF($A13= "","",'Detalle del Riesgo'!F30)</f>
+        <f>IF($A13= "","",'[1]Detalle del Riesgo'!F30)</f>
         <v>Mitigar</v>
       </c>
       <c r="I13" s="160" t="str">
-        <f>IF($A13= "","",'Detalle del Riesgo'!C32)</f>
+        <f>IF($A13= "","",'[1]Detalle del Riesgo'!C32)</f>
         <v>06/18/16</v>
       </c>
       <c r="J13" s="161" t="str">
-        <f>IF($A13= "","",'Detalle del Riesgo'!F36)</f>
+        <f>IF($A13= "","",'[1]Detalle del Riesgo'!F36)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D56)="&lt;","",'Detalle del Riesgo'!C56)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D56)="&lt;","",'[1]Detalle del Riesgo'!C56)</f>
         <v>RG_055</v>
       </c>
       <c r="B14" s="156">
-        <f>IF($A14="","",'Detalle del Riesgo'!F58)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C14" s="157" t="str">
-        <f>IF($A14="","",LEFT('Detalle del Riesgo'!D63,1))</f>
+        <f>IF($A14="","",LEFT('[1]Detalle del Riesgo'!D63,1))</f>
         <v>N</v>
       </c>
       <c r="D14" s="158" t="str">
-        <f>IF($A14="","",'Detalle del Riesgo'!D56)</f>
+        <f>IF($A14="","",'[1]Detalle del Riesgo'!D56)</f>
         <v>Falta de comunicación en el equipo de desarrollo</v>
       </c>
       <c r="E14" s="159" t="str">
-        <f>IF($A14="","",'Detalle del Riesgo'!C60)</f>
+        <f>IF($A14="","",'[1]Detalle del Riesgo'!C60)</f>
         <v>Líder del proyecto</v>
       </c>
       <c r="F14" s="157" t="str">
-        <f>IF(OR($A14="",$H14="Retired"),"",'Detalle del Riesgo'!D58)</f>
+        <f>IF(OR($A14="",$H14="Retired"),"",'[1]Detalle del Riesgo'!D58)</f>
         <v>R</v>
       </c>
       <c r="G14" s="157" t="str">
-        <f>IF($A14="","",'Detalle del Riesgo'!C63)</f>
+        <f>IF($A14="","",'[1]Detalle del Riesgo'!C63)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H14" s="157" t="str">
-        <f>IF($A14= "","",'Detalle del Riesgo'!F56)</f>
+        <f>IF($A14= "","",'[1]Detalle del Riesgo'!F56)</f>
         <v>Prevenir</v>
       </c>
       <c r="I14" s="160" t="str">
-        <f>IF($A14= "","",'Detalle del Riesgo'!C58)</f>
+        <f>IF($A14= "","",'[1]Detalle del Riesgo'!C58)</f>
         <v>06/18/16</v>
       </c>
       <c r="J14" s="161" t="str">
-        <f>IF($A14= "","",'Detalle del Riesgo'!F62)</f>
+        <f>IF($A14= "","",'[1]Detalle del Riesgo'!F62)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D82)="&lt;","",'Detalle del Riesgo'!C82)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D82)="&lt;","",'[1]Detalle del Riesgo'!C82)</f>
         <v>RG_063</v>
       </c>
       <c r="B15" s="156">
-        <f>IF($A15="","",'Detalle del Riesgo'!F84)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="157" t="str">
-        <f>IF($A15="","",LEFT('Detalle del Riesgo'!D89,1))</f>
+        <f>IF($A15="","",LEFT('[1]Detalle del Riesgo'!D89,1))</f>
         <v>N</v>
       </c>
       <c r="D15" s="158" t="str">
-        <f>IF($A15="","",'Detalle del Riesgo'!D82)</f>
+        <f>IF($A15="","",'[1]Detalle del Riesgo'!D82)</f>
         <v>el usuario cambia los requerimientos</v>
       </c>
       <c r="E15" s="159" t="str">
-        <f>IF($A15="","",'Detalle del Riesgo'!C86)</f>
+        <f>IF($A15="","",'[1]Detalle del Riesgo'!C86)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F15" s="157" t="str">
-        <f>IF(OR($A15="",$H15="Retired"),"",'Detalle del Riesgo'!D84)</f>
+        <f>IF(OR($A15="",$H15="Retired"),"",'[1]Detalle del Riesgo'!D84)</f>
         <v>R</v>
       </c>
       <c r="G15" s="157" t="str">
-        <f>IF($A15="","",'Detalle del Riesgo'!C89)</f>
+        <f>IF($A15="","",'[1]Detalle del Riesgo'!C89)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H15" s="157" t="str">
-        <f>IF($A15= "","",'Detalle del Riesgo'!F82)</f>
+        <f>IF($A15= "","",'[1]Detalle del Riesgo'!F82)</f>
         <v>Mitigar</v>
       </c>
       <c r="I15" s="160" t="str">
-        <f>IF($A15= "","",'Detalle del Riesgo'!C84)</f>
+        <f>IF($A15= "","",'[1]Detalle del Riesgo'!C84)</f>
         <v>06/18/16</v>
       </c>
       <c r="J15" s="161" t="str">
-        <f>IF($A15= "","",'Detalle del Riesgo'!F88)</f>
+        <f>IF($A15= "","",'[1]Detalle del Riesgo'!F88)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D108)="&lt;","",'Detalle del Riesgo'!C108)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D108)="&lt;","",'[1]Detalle del Riesgo'!C108)</f>
         <v>RG_071</v>
       </c>
       <c r="B16" s="156">
-        <f>IF($A16="","",'Detalle del Riesgo'!F110)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" s="157" t="str">
-        <f>IF($A16="","",LEFT('Detalle del Riesgo'!D115,1))</f>
+        <f>IF($A16="","",LEFT('[1]Detalle del Riesgo'!D115,1))</f>
         <v>N</v>
       </c>
       <c r="D16" s="158" t="str">
-        <f>IF($A16="","",'Detalle del Riesgo'!D108)</f>
+        <f>IF($A16="","",'[1]Detalle del Riesgo'!D108)</f>
         <v>El contratista no entrega material de calidad</v>
       </c>
       <c r="E16" s="159" t="str">
-        <f>IF($A16="","",'Detalle del Riesgo'!C112)</f>
+        <f>IF($A16="","",'[1]Detalle del Riesgo'!C112)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F16" s="157" t="str">
-        <f>IF(OR($A16="",$H16="Retired"),"",'Detalle del Riesgo'!D110)</f>
+        <f>IF(OR($A16="",$H16="Retired"),"",'[1]Detalle del Riesgo'!D110)</f>
         <v>R</v>
       </c>
       <c r="G16" s="157" t="str">
-        <f>IF($A16="","",'Detalle del Riesgo'!C115)</f>
+        <f>IF($A16="","",'[1]Detalle del Riesgo'!C115)</f>
         <v>1-3 meses</v>
       </c>
       <c r="H16" s="157" t="str">
-        <f>IF($A16= "","",'Detalle del Riesgo'!F108)</f>
+        <f>IF($A16= "","",'[1]Detalle del Riesgo'!F108)</f>
         <v>Mitigar</v>
       </c>
       <c r="I16" s="160" t="str">
-        <f>IF($A16= "","",'Detalle del Riesgo'!C110)</f>
+        <f>IF($A16= "","",'[1]Detalle del Riesgo'!C110)</f>
         <v>06/18/16</v>
       </c>
       <c r="J16" s="161" t="str">
-        <f>IF($A16= "","",'Detalle del Riesgo'!F114)</f>
+        <f>IF($A16= "","",'[1]Detalle del Riesgo'!F114)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D134)="&lt;","",'Detalle del Riesgo'!C134)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D134)="&lt;","",'[1]Detalle del Riesgo'!C134)</f>
         <v>RG_084</v>
       </c>
       <c r="B17" s="156">
-        <f>IF($A17="","",'Detalle del Riesgo'!F136)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" s="157" t="str">
-        <f>IF($A17="","",LEFT('Detalle del Riesgo'!D141,1))</f>
+        <f>IF($A17="","",LEFT('[1]Detalle del Riesgo'!D141,1))</f>
         <v>N</v>
       </c>
       <c r="D17" s="158" t="str">
-        <f>IF($A17="","",'Detalle del Riesgo'!D134)</f>
+        <f>IF($A17="","",'[1]Detalle del Riesgo'!D134)</f>
         <v>Mala asignación de los requerimientos a los roles</v>
       </c>
       <c r="E17" s="159" t="str">
-        <f>IF($A17="","",'Detalle del Riesgo'!C138)</f>
-        <v>Líder del Proyecto</v>
+        <f>IF($A17="","",'[1]Detalle del Riesgo'!C138)</f>
+        <v>Análista</v>
       </c>
       <c r="F17" s="157" t="str">
-        <f>IF(OR($A17="",$H17="Retired"),"",'Detalle del Riesgo'!D136)</f>
+        <f>IF(OR($A17="",$H17="Retired"),"",'[1]Detalle del Riesgo'!D136)</f>
         <v>R</v>
       </c>
       <c r="G17" s="157" t="str">
-        <f>IF($A17="","",'Detalle del Riesgo'!C141)</f>
+        <f>IF($A17="","",'[1]Detalle del Riesgo'!C141)</f>
         <v>1-3 meses</v>
       </c>
       <c r="H17" s="157" t="str">
-        <f>IF($A17= "","",'Detalle del Riesgo'!F134)</f>
+        <f>IF($A17= "","",'[1]Detalle del Riesgo'!F134)</f>
         <v>Mitigar</v>
       </c>
       <c r="I17" s="160" t="str">
-        <f>IF($A17= "","",'Detalle del Riesgo'!C136)</f>
+        <f>IF($A17= "","",'[1]Detalle del Riesgo'!C136)</f>
         <v>06/18/16</v>
       </c>
       <c r="J17" s="161" t="str">
-        <f>IF($A17= "","",'Detalle del Riesgo'!F140)</f>
+        <f>IF($A17= "","",'[1]Detalle del Riesgo'!F140)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D160)="&lt;","",'Detalle del Riesgo'!C160)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D160)="&lt;","",'[1]Detalle del Riesgo'!C160)</f>
         <v>RG_093</v>
       </c>
       <c r="B18" s="156">
-        <f>IF($A18="","",'Detalle del Riesgo'!F162)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" s="157" t="str">
-        <f>IF($A18="","",LEFT('Detalle del Riesgo'!D167,1))</f>
+        <f>IF($A18="","",LEFT('[1]Detalle del Riesgo'!D167,1))</f>
         <v>N</v>
       </c>
       <c r="D18" s="158" t="str">
-        <f>IF($A18="","",'Detalle del Riesgo'!D160)</f>
+        <f>IF($A18="","",'[1]Detalle del Riesgo'!D160)</f>
         <v>Los componentes de software elegidos no trabajan adecuadamente</v>
       </c>
       <c r="E18" s="159" t="str">
-        <f>IF($A18="","",'Detalle del Riesgo'!C164)</f>
+        <f>IF($A18="","",'[1]Detalle del Riesgo'!C164)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F18" s="157" t="str">
-        <f>IF(OR($A18="",$H18="Retired"),"",'Detalle del Riesgo'!D162)</f>
+        <f>IF(OR($A18="",$H18="Retired"),"",'[1]Detalle del Riesgo'!D162)</f>
         <v>Y</v>
       </c>
       <c r="G18" s="157" t="str">
-        <f>IF($A18="","",'Detalle del Riesgo'!C167)</f>
+        <f>IF($A18="","",'[1]Detalle del Riesgo'!C167)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H18" s="157" t="str">
-        <f>IF($A18= "","",'Detalle del Riesgo'!F160)</f>
+        <f>IF($A18= "","",'[1]Detalle del Riesgo'!F160)</f>
         <v>Prevenir</v>
       </c>
       <c r="I18" s="160" t="str">
-        <f>IF($A18= "","",'Detalle del Riesgo'!C162)</f>
+        <f>IF($A18= "","",'[1]Detalle del Riesgo'!C162)</f>
         <v>06/18/16</v>
       </c>
       <c r="J18" s="161" t="str">
-        <f>IF($A18= "","",'Detalle del Riesgo'!F166)</f>
+        <f>IF($A18= "","",'[1]Detalle del Riesgo'!F166)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D186)="&lt;","",'Detalle del Riesgo'!C186)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D186)="&lt;","",'[1]Detalle del Riesgo'!C186)</f>
         <v>RG_115</v>
       </c>
       <c r="B19" s="156">
-        <f>IF($A19="","",'Detalle del Riesgo'!F188)</f>
         <v>1</v>
       </c>
       <c r="C19" s="157" t="str">
-        <f>IF($A19="","",LEFT('Detalle del Riesgo'!D193,1))</f>
+        <f>IF($A19="","",LEFT('[1]Detalle del Riesgo'!D193,1))</f>
         <v>N</v>
       </c>
       <c r="D19" s="158" t="str">
-        <f>IF($A19="","",'Detalle del Riesgo'!D186)</f>
+        <f>IF($A19="","",'[1]Detalle del Riesgo'!D186)</f>
         <v>El hackeo del sistema</v>
       </c>
       <c r="E19" s="159" t="str">
-        <f>IF($A19="","",'Detalle del Riesgo'!C190)</f>
+        <f>IF($A19="","",'[1]Detalle del Riesgo'!C190)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F19" s="157" t="str">
-        <f>IF(OR($A19="",$H19="Retired"),"",'Detalle del Riesgo'!D188)</f>
+        <f>IF(OR($A19="",$H19="Retired"),"",'[1]Detalle del Riesgo'!D188)</f>
         <v>R</v>
       </c>
       <c r="G19" s="157" t="str">
-        <f>IF($A19="","",'Detalle del Riesgo'!C193)</f>
+        <f>IF($A19="","",'[1]Detalle del Riesgo'!C193)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H19" s="157" t="str">
-        <f>IF($A19= "","",'Detalle del Riesgo'!F186)</f>
+        <f>IF($A19= "","",'[1]Detalle del Riesgo'!F186)</f>
         <v>Prevenir</v>
       </c>
       <c r="I19" s="160" t="str">
-        <f>IF($A19= "","",'Detalle del Riesgo'!C188)</f>
+        <f>IF($A19= "","",'[1]Detalle del Riesgo'!C188)</f>
         <v>06/18/16</v>
       </c>
       <c r="J19" s="161" t="str">
-        <f>IF($A19= "","",'Detalle del Riesgo'!F192)</f>
+        <f>IF($A19= "","",'[1]Detalle del Riesgo'!F192)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D212)="&lt;","",'Detalle del Riesgo'!C212)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D212)="&lt;","",'[1]Detalle del Riesgo'!C212)</f>
         <v>RG_130</v>
       </c>
       <c r="B20" s="156">
-        <f>IF($A20="","",'Detalle del Riesgo'!F214)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" s="157" t="str">
-        <f>IF($A20="","",LEFT('Detalle del Riesgo'!D219,1))</f>
+        <f>IF($A20="","",LEFT('[1]Detalle del Riesgo'!D219,1))</f>
         <v>N</v>
       </c>
       <c r="D20" s="158" t="str">
-        <f>IF($A20="","",'Detalle del Riesgo'!D212)</f>
+        <f>IF($A20="","",'[1]Detalle del Riesgo'!D212)</f>
         <v>Los miembros del equipo conflictivo no son despedidos</v>
       </c>
       <c r="E20" s="159" t="str">
-        <f>IF($A20="","",'Detalle del Riesgo'!C216)</f>
+        <f>IF($A20="","",'[1]Detalle del Riesgo'!C216)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F20" s="157" t="str">
-        <f>IF(OR($A20="",$H20="Retired"),"",'Detalle del Riesgo'!D214)</f>
+        <f>IF(OR($A20="",$H20="Retired"),"",'[1]Detalle del Riesgo'!D214)</f>
         <v>R</v>
       </c>
       <c r="G20" s="157" t="str">
-        <f>IF($A20="","",'Detalle del Riesgo'!C219)</f>
+        <f>IF($A20="","",'[1]Detalle del Riesgo'!C219)</f>
         <v>1-3 meses</v>
       </c>
       <c r="H20" s="157" t="str">
-        <f>IF($A20= "","",'Detalle del Riesgo'!F212)</f>
+        <f>IF($A20= "","",'[1]Detalle del Riesgo'!F212)</f>
         <v>Prevenir</v>
       </c>
       <c r="I20" s="160" t="str">
-        <f>IF($A20= "","",'Detalle del Riesgo'!C214)</f>
+        <f>IF($A20= "","",'[1]Detalle del Riesgo'!C214)</f>
         <v>06/18/16</v>
       </c>
       <c r="J20" s="161" t="str">
-        <f>IF($A20= "","",'Detalle del Riesgo'!F218)</f>
+        <f>IF($A20= "","",'[1]Detalle del Riesgo'!F218)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D238)="&lt;","",'Detalle del Riesgo'!C238)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D238)="&lt;","",'[1]Detalle del Riesgo'!C238)</f>
         <v>RG_144</v>
       </c>
       <c r="B21" s="156">
-        <f>IF($A21="","",'Detalle del Riesgo'!F240)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C21" s="157" t="str">
-        <f>IF($A21="","",LEFT('Detalle del Riesgo'!D245,1))</f>
+        <f>IF($A21="","",LEFT('[1]Detalle del Riesgo'!D245,1))</f>
         <v>N</v>
       </c>
       <c r="D21" s="158" t="str">
-        <f>IF($A21="","",'Detalle del Riesgo'!D238)</f>
-        <v>No se establece la dirección de donde están cituados</v>
+        <f>IF($A21="","",'[1]Detalle del Riesgo'!D238)</f>
+        <v>No se establece la dirección de donde están cituados los archivos</v>
       </c>
       <c r="E21" s="159" t="str">
-        <f>IF($A21="","",'Detalle del Riesgo'!C242)</f>
+        <f>IF($A21="","",'[1]Detalle del Riesgo'!C242)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F21" s="157" t="str">
-        <f>IF(OR($A21="",$H21="Retired"),"",'Detalle del Riesgo'!D240)</f>
+        <f>IF(OR($A21="",$H21="Retired"),"",'[1]Detalle del Riesgo'!D240)</f>
         <v>Y</v>
       </c>
       <c r="G21" s="157" t="str">
-        <f>IF($A21="","",'Detalle del Riesgo'!C245)</f>
+        <f>IF($A21="","",'[1]Detalle del Riesgo'!C245)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H21" s="157" t="str">
-        <f>IF($A21= "","",'Detalle del Riesgo'!F238)</f>
+        <f>IF($A21= "","",'[1]Detalle del Riesgo'!F238)</f>
         <v>Prevenir</v>
       </c>
       <c r="I21" s="160" t="str">
-        <f>IF($A21= "","",'Detalle del Riesgo'!C240)</f>
+        <f>IF($A21= "","",'[1]Detalle del Riesgo'!C240)</f>
         <v>06/18/16</v>
       </c>
       <c r="J21" s="161" t="str">
-        <f>IF($A21= "","",'Detalle del Riesgo'!F244)</f>
+        <f>IF($A21= "","",'[1]Detalle del Riesgo'!F244)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D264)="&lt;","",'Detalle del Riesgo'!C264)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D264)="&lt;","",'[1]Detalle del Riesgo'!C264)</f>
         <v>RG_154</v>
       </c>
       <c r="B22" s="156">
-        <f>IF($A22="","",'Detalle del Riesgo'!F266)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="157" t="str">
-        <f>IF($A22="","",LEFT('Detalle del Riesgo'!D271,1))</f>
+        <f>IF($A22="","",LEFT('[1]Detalle del Riesgo'!D271,1))</f>
         <v>N</v>
       </c>
       <c r="D22" s="158" t="str">
-        <f>IF($A22="","",'Detalle del Riesgo'!D264)</f>
+        <f>IF($A22="","",'[1]Detalle del Riesgo'!D264)</f>
         <v xml:space="preserve"> Mal control por el asegurador de la calidad</v>
       </c>
       <c r="E22" s="159" t="str">
-        <f>IF($A22="","",'Detalle del Riesgo'!C268)</f>
+        <f>IF($A22="","",'[1]Detalle del Riesgo'!C268)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F22" s="157" t="str">
-        <f>IF(OR($A22="",$H22="Retired"),"",'Detalle del Riesgo'!D266)</f>
+        <f>IF(OR($A22="",$H22="Retired"),"",'[1]Detalle del Riesgo'!D266)</f>
         <v>Y</v>
       </c>
       <c r="G22" s="157" t="str">
-        <f>IF($A22="","",'Detalle del Riesgo'!C271)</f>
+        <f>IF($A22="","",'[1]Detalle del Riesgo'!C271)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H22" s="157" t="str">
-        <f>IF($A22= "","",'Detalle del Riesgo'!F264)</f>
+        <f>IF($A22= "","",'[1]Detalle del Riesgo'!F264)</f>
         <v>Prevenir</v>
       </c>
       <c r="I22" s="160" t="str">
-        <f>IF($A22= "","",'Detalle del Riesgo'!C266)</f>
+        <f>IF($A22= "","",'[1]Detalle del Riesgo'!C266)</f>
         <v>06/18/16</v>
       </c>
       <c r="J22" s="161" t="str">
-        <f>IF($A22= "","",'Detalle del Riesgo'!F270)</f>
+        <f>IF($A22= "","",'[1]Detalle del Riesgo'!F270)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="155" t="e">
-        <f>IF(LEFT('Detalle del Riesgo'!D290)="&lt;","",'Detalle del Riesgo'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B23" s="156" t="e">
-        <f>IF($A23="","",'Detalle del Riesgo'!F292)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="157" t="e">
-        <f>IF($A23="","",LEFT('Detalle del Riesgo'!D297,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="158" t="e">
-        <f>IF($A23="","",'Detalle del Riesgo'!D290)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="159" t="e">
-        <f>IF($A23="","",'Detalle del Riesgo'!C294)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" s="157" t="e">
-        <f>IF(OR($A23="",$H23="Retired"),"",'Detalle del Riesgo'!D292)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="157" t="e">
-        <f>IF($A23="","",'Detalle del Riesgo'!C297)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="157" t="e">
-        <f>IF($A23= "","",'Detalle del Riesgo'!F290)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="160" t="e">
-        <f>IF($A23= "","",'Detalle del Riesgo'!C292)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="161" t="e">
-        <f>IF($A23= "","",'Detalle del Riesgo'!F296)</f>
-        <v>#REF!</v>
+      <c r="A23" s="155" t="str">
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D290)="&lt;","",'[1]Detalle del Riesgo'!C290)</f>
+        <v>RG_042</v>
+      </c>
+      <c r="B23" s="156">
+        <v>12</v>
+      </c>
+      <c r="C23" s="157" t="str">
+        <f>IF($A23="","",LEFT('[1]Detalle del Riesgo'!D297,1))</f>
+        <v>N</v>
+      </c>
+      <c r="D23" s="158" t="str">
+        <f>IF($A23="","",'[1]Detalle del Riesgo'!D290)</f>
+        <v>Los desarrolladores no estan familiarizados con las herramientas a utilizar</v>
+      </c>
+      <c r="E23" s="159" t="str">
+        <f>IF($A23="","",'[1]Detalle del Riesgo'!C294)</f>
+        <v>Líder del Proyecto</v>
+      </c>
+      <c r="F23" s="157" t="str">
+        <f>IF(OR($A23="",$H23="Retired"),"",'[1]Detalle del Riesgo'!D292)</f>
+        <v>R</v>
+      </c>
+      <c r="G23" s="157" t="str">
+        <f>IF($A23="","",'[1]Detalle del Riesgo'!C297)</f>
+        <v>&lt;1 mes</v>
+      </c>
+      <c r="H23" s="157" t="str">
+        <f>IF($A23= "","",'[1]Detalle del Riesgo'!F290)</f>
+        <v>Prevenir</v>
+      </c>
+      <c r="I23" s="160" t="str">
+        <f>IF($A23= "","",'[1]Detalle del Riesgo'!C292)</f>
+        <v>06/18/16</v>
+      </c>
+      <c r="J23" s="161" t="str">
+        <f>IF($A23= "","",'[1]Detalle del Riesgo'!F296)</f>
+        <v>06/18/16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D316)="&lt;","",'Detalle del Riesgo'!C316)</f>
-        <v/>
-      </c>
-      <c r="B24" s="156" t="str">
-        <f>IF($A24="","",'Detalle del Riesgo'!F318)</f>
-        <v/>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D316)="&lt;","",'[1]Detalle del Riesgo'!C316)</f>
+        <v>RG_145</v>
+      </c>
+      <c r="B24" s="156">
+        <v>6</v>
       </c>
       <c r="C24" s="157" t="str">
-        <f>IF($A24="","",LEFT('Detalle del Riesgo'!D323,1))</f>
-        <v/>
+        <f>IF($A24="","",LEFT('[1]Detalle del Riesgo'!D323,1))</f>
+        <v>N</v>
       </c>
       <c r="D24" s="158" t="str">
-        <f>IF($A24="","",'Detalle del Riesgo'!D316)</f>
-        <v/>
+        <f>IF($A24="","",'[1]Detalle del Riesgo'!D316)</f>
+        <v>No se cuenta con un repositorio</v>
       </c>
       <c r="E24" s="159" t="str">
-        <f>IF($A24="","",'Detalle del Riesgo'!C320)</f>
-        <v/>
+        <f>IF($A24="","",'[1]Detalle del Riesgo'!C320)</f>
+        <v>Lider de proyecto</v>
       </c>
       <c r="F24" s="157" t="str">
-        <f>IF(OR($A24="",$H24="Retired"),"",'Detalle del Riesgo'!D318)</f>
-        <v/>
+        <f>IF(OR($A24="",$H24="Retired"),"",'[1]Detalle del Riesgo'!D318)</f>
+        <v>Y</v>
       </c>
       <c r="G24" s="157" t="str">
-        <f>IF($A24="","",'Detalle del Riesgo'!C323)</f>
-        <v/>
+        <f>IF($A24="","",'[1]Detalle del Riesgo'!C323)</f>
+        <v>&lt;1 mes</v>
       </c>
       <c r="H24" s="157" t="str">
-        <f>IF($A24= "","",'Detalle del Riesgo'!F316)</f>
-        <v/>
+        <f>IF($A24= "","",'[1]Detalle del Riesgo'!F316)</f>
+        <v>Prevenir</v>
       </c>
       <c r="I24" s="160" t="str">
-        <f>IF($A24= "","",'Detalle del Riesgo'!C318)</f>
-        <v/>
+        <f>IF($A24= "","",'[1]Detalle del Riesgo'!C318)</f>
+        <v>06/18/16</v>
       </c>
       <c r="J24" s="161" t="str">
-        <f>IF($A24= "","",'Detalle del Riesgo'!F322)</f>
-        <v/>
+        <f>IF($A24= "","",'[1]Detalle del Riesgo'!F322)</f>
+        <v>06/18/16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D342)="&lt;","",'Detalle del Riesgo'!C342)</f>
-        <v/>
-      </c>
-      <c r="B25" s="156" t="str">
-        <f>IF($A25="","",'Detalle del Riesgo'!F344)</f>
-        <v/>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D342)="&lt;","",'[1]Detalle del Riesgo'!C342)</f>
+        <v>RG_121</v>
+      </c>
+      <c r="B25" s="156">
+        <v>20</v>
       </c>
       <c r="C25" s="157" t="str">
-        <f>IF($A25="","",LEFT('Detalle del Riesgo'!D349,1))</f>
-        <v/>
+        <f>IF($A25="","",LEFT('[1]Detalle del Riesgo'!D349,1))</f>
+        <v>N</v>
       </c>
       <c r="D25" s="158" t="str">
-        <f>IF($A25="","",'Detalle del Riesgo'!D342)</f>
-        <v/>
+        <f>IF($A25="","",'[1]Detalle del Riesgo'!D342)</f>
+        <v>Estrés del personal</v>
       </c>
       <c r="E25" s="159" t="str">
-        <f>IF($A25="","",'Detalle del Riesgo'!C346)</f>
-        <v/>
+        <f>IF($A25="","",'[1]Detalle del Riesgo'!C346)</f>
+        <v>Lider de proyecto</v>
       </c>
       <c r="F25" s="157" t="str">
-        <f>IF(OR($A25="",$H25="Retired"),"",'Detalle del Riesgo'!D344)</f>
-        <v/>
+        <f>IF(OR($A25="",$H25="Retired"),"",'[1]Detalle del Riesgo'!D344)</f>
+        <v>R</v>
       </c>
       <c r="G25" s="157" t="str">
-        <f>IF($A25="","",'Detalle del Riesgo'!C349)</f>
-        <v/>
+        <f>IF($A25="","",'[1]Detalle del Riesgo'!C349)</f>
+        <v>&lt;1 mes</v>
       </c>
       <c r="H25" s="157" t="str">
-        <f>IF($A25= "","",'Detalle del Riesgo'!F342)</f>
-        <v/>
+        <f>IF($A25= "","",'[1]Detalle del Riesgo'!F342)</f>
+        <v>Mitigar</v>
       </c>
       <c r="I25" s="160" t="str">
-        <f>IF($A25= "","",'Detalle del Riesgo'!C344)</f>
-        <v/>
+        <f>IF($A25= "","",'[1]Detalle del Riesgo'!C344)</f>
+        <v>06/18/16</v>
       </c>
       <c r="J25" s="161" t="str">
-        <f>IF($A25= "","",'Detalle del Riesgo'!F348)</f>
-        <v/>
+        <f>IF($A25= "","",'[1]Detalle del Riesgo'!F348)</f>
+        <v>06/18/16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D368)="&lt;","",'Detalle del Riesgo'!C368)</f>
-        <v/>
-      </c>
-      <c r="B26" s="156" t="str">
-        <f>IF($A26="","",'Detalle del Riesgo'!F370)</f>
-        <v/>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D368)="&lt;","",'[1]Detalle del Riesgo'!C368)</f>
+        <v>RG_131</v>
+      </c>
+      <c r="B26" s="156">
+        <v>19</v>
       </c>
       <c r="C26" s="157" t="str">
-        <f>IF($A26="","",LEFT('Detalle del Riesgo'!D375,1))</f>
-        <v/>
+        <f>IF($A26="","",LEFT('[1]Detalle del Riesgo'!D375,1))</f>
+        <v>N</v>
       </c>
       <c r="D26" s="158" t="str">
-        <f>IF($A26="","",'Detalle del Riesgo'!D368)</f>
-        <v/>
+        <f>IF($A26="","",'[1]Detalle del Riesgo'!D368)</f>
+        <v>Los miembros del equipo no siguen las politicas del proyecto</v>
       </c>
       <c r="E26" s="159" t="str">
-        <f>IF($A26="","",'Detalle del Riesgo'!C372)</f>
-        <v/>
+        <f>IF($A26="","",'[1]Detalle del Riesgo'!C372)</f>
+        <v>Lider de Proyecto</v>
       </c>
       <c r="F26" s="157" t="str">
-        <f>IF(OR($A26="",$H26="Retired"),"",'Detalle del Riesgo'!D370)</f>
-        <v/>
+        <f>IF(OR($A26="",$H26="Retired"),"",'[1]Detalle del Riesgo'!D370)</f>
+        <v>R</v>
       </c>
       <c r="G26" s="157" t="str">
-        <f>IF($A26="","",'Detalle del Riesgo'!C375)</f>
-        <v/>
+        <f>IF($A26="","",'[1]Detalle del Riesgo'!C375)</f>
+        <v>&lt;1 mes</v>
       </c>
       <c r="H26" s="157" t="str">
-        <f>IF($A26= "","",'Detalle del Riesgo'!F368)</f>
-        <v/>
+        <f>IF($A26= "","",'[1]Detalle del Riesgo'!F368)</f>
+        <v>Mitigar</v>
       </c>
       <c r="I26" s="160" t="str">
-        <f>IF($A26= "","",'Detalle del Riesgo'!C370)</f>
-        <v/>
+        <f>IF($A26= "","",'[1]Detalle del Riesgo'!C370)</f>
+        <v>06/18/16</v>
       </c>
       <c r="J26" s="161" t="str">
-        <f>IF($A26= "","",'Detalle del Riesgo'!F374)</f>
-        <v/>
+        <f>IF($A26= "","",'[1]Detalle del Riesgo'!F374)</f>
+        <v>06/18/16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="155" t="e">
-        <f>IF(LEFT('Detalle del Riesgo'!#REF!)="&lt;","",'Detalle del Riesgo'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B27" s="156" t="e">
-        <f>IF($A27="","",'Detalle del Riesgo'!F396)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C27" s="157" t="e">
-        <f>IF($A27="","",LEFT('Detalle del Riesgo'!D401,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="158" t="e">
-        <f>IF($A27="","",'Detalle del Riesgo'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="159" t="e">
-        <f>IF($A27="","",'Detalle del Riesgo'!C398)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="157" t="e">
-        <f>IF(OR($A27="",$H27="Retired"),"",'Detalle del Riesgo'!D396)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="157" t="e">
-        <f>IF($A27="","",'Detalle del Riesgo'!C401)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="157" t="e">
-        <f>IF($A27= "","",'Detalle del Riesgo'!F394)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="160" t="e">
-        <f>IF($A27= "","",'Detalle del Riesgo'!C396)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="161" t="e">
-        <f>IF($A27= "","",'Detalle del Riesgo'!F400)</f>
-        <v>#REF!</v>
+      <c r="A27" s="155" t="str">
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D394)="&lt;","",'[1]Detalle del Riesgo'!C394)</f>
+        <v>RG_148</v>
+      </c>
+      <c r="B27" s="156">
+        <v>13</v>
+      </c>
+      <c r="C27" s="157" t="str">
+        <f>IF($A27="","",LEFT('[1]Detalle del Riesgo'!D401,1))</f>
+        <v>N</v>
+      </c>
+      <c r="D27" s="158" t="str">
+        <f>IF($A27="","",'[1]Detalle del Riesgo'!D394)</f>
+        <v>Mucho tiempo empleado para conocer el proceso de calidad</v>
+      </c>
+      <c r="E27" s="159" t="str">
+        <f>IF($A27="","",'[1]Detalle del Riesgo'!C398)</f>
+        <v>Líder del Proyecto</v>
+      </c>
+      <c r="F27" s="157" t="str">
+        <f>IF(OR($A27="",$H27="Retired"),"",'[1]Detalle del Riesgo'!D396)</f>
+        <v>Y</v>
+      </c>
+      <c r="G27" s="157" t="str">
+        <f>IF($A27="","",'[1]Detalle del Riesgo'!C401)</f>
+        <v>&lt;1 mes</v>
+      </c>
+      <c r="H27" s="157" t="str">
+        <f>IF($A27= "","",'[1]Detalle del Riesgo'!F394)</f>
+        <v>Prevenir</v>
+      </c>
+      <c r="I27" s="160" t="str">
+        <f>IF($A27= "","",'[1]Detalle del Riesgo'!C396)</f>
+        <v>06/18/16</v>
+      </c>
+      <c r="J27" s="161" t="str">
+        <f>IF($A27= "","",'[1]Detalle del Riesgo'!F400)</f>
+        <v>06/18/16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D394)="&lt;","",'Detalle del Riesgo'!C394)</f>
-        <v>RG_148</v>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D420)="&lt;","",'[1]Detalle del Riesgo'!C420)</f>
+        <v>RG_095</v>
       </c>
       <c r="B28" s="156">
-        <f>IF($A28="","",'Detalle del Riesgo'!F422)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C28" s="157" t="str">
-        <f>IF($A28="","",LEFT('Detalle del Riesgo'!D427,1))</f>
+        <f>IF($A28="","",LEFT('[1]Detalle del Riesgo'!D427,1))</f>
         <v>N</v>
       </c>
       <c r="D28" s="158" t="str">
-        <f>IF($A28="","",'Detalle del Riesgo'!D394)</f>
-        <v>Mucho tiempo empleado para conocer el proceso de calidad</v>
+        <f>IF($A28="","",'[1]Detalle del Riesgo'!D420)</f>
+        <v>El producto no cumple con los requerimientos  funcionales</v>
       </c>
       <c r="E28" s="159" t="str">
-        <f>IF($A28="","",'Detalle del Riesgo'!C424)</f>
+        <f>IF($A28="","",'[1]Detalle del Riesgo'!C424)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F28" s="157" t="str">
-        <f>IF(OR($A28="",$H28="Retired"),"",'Detalle del Riesgo'!D422)</f>
+        <f>IF(OR($A28="",$H28="Retired"),"",'[1]Detalle del Riesgo'!D422)</f>
         <v>R</v>
       </c>
       <c r="G28" s="157" t="str">
-        <f>IF($A28="","",'Detalle del Riesgo'!C427)</f>
+        <f>IF($A28="","",'[1]Detalle del Riesgo'!C427)</f>
         <v>1-3 meses</v>
       </c>
       <c r="H28" s="157" t="str">
-        <f>IF($A28= "","",'Detalle del Riesgo'!F420)</f>
+        <f>IF($A28= "","",'[1]Detalle del Riesgo'!F420)</f>
         <v>Prevenir</v>
       </c>
       <c r="I28" s="160" t="str">
-        <f>IF($A28= "","",'Detalle del Riesgo'!C422)</f>
+        <f>IF($A28= "","",'[1]Detalle del Riesgo'!C422)</f>
         <v>06/18/16</v>
       </c>
       <c r="J28" s="161" t="str">
-        <f>IF($A28= "","",'Detalle del Riesgo'!F426)</f>
+        <f>IF($A28= "","",'[1]Detalle del Riesgo'!F426)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D446)="&lt;","",'Detalle del Riesgo'!C446)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D446)="&lt;","",'[1]Detalle del Riesgo'!C446)</f>
         <v>RG_114</v>
       </c>
       <c r="B29" s="156">
-        <f>IF($A29="","",'Detalle del Riesgo'!F448)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C29" s="157" t="str">
-        <f>IF($A29="","",LEFT('Detalle del Riesgo'!D453,1))</f>
+        <f>IF($A29="","",LEFT('[1]Detalle del Riesgo'!D453,1))</f>
         <v>N</v>
       </c>
       <c r="D29" s="158" t="str">
-        <f>IF($A29="","",'Detalle del Riesgo'!D446)</f>
+        <f>IF($A29="","",'[1]Detalle del Riesgo'!D446)</f>
         <v>Robos de equipo</v>
       </c>
       <c r="E29" s="159" t="str">
-        <f>IF($A29="","",'Detalle del Riesgo'!C450)</f>
+        <f>IF($A29="","",'[1]Detalle del Riesgo'!C450)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F29" s="157" t="str">
-        <f>IF(OR($A29="",$H29="Retired"),"",'Detalle del Riesgo'!D448)</f>
+        <f>IF(OR($A29="",$H29="Retired"),"",'[1]Detalle del Riesgo'!D448)</f>
         <v>Y</v>
       </c>
       <c r="G29" s="157" t="str">
-        <f>IF($A29="","",'Detalle del Riesgo'!C453)</f>
+        <f>IF($A29="","",'[1]Detalle del Riesgo'!C453)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H29" s="157" t="str">
-        <f>IF($A29= "","",'Detalle del Riesgo'!F446)</f>
+        <f>IF($A29= "","",'[1]Detalle del Riesgo'!F446)</f>
         <v>Prevenir</v>
       </c>
       <c r="I29" s="160" t="str">
-        <f>IF($A29= "","",'Detalle del Riesgo'!C448)</f>
+        <f>IF($A29= "","",'[1]Detalle del Riesgo'!C448)</f>
         <v>06/18/16</v>
       </c>
       <c r="J29" s="161" t="str">
-        <f>IF($A29= "","",'Detalle del Riesgo'!F452)</f>
+        <f>IF($A29= "","",'[1]Detalle del Riesgo'!F452)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D472)="&lt;","",'Detalle del Riesgo'!C472)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D472)="&lt;","",'[1]Detalle del Riesgo'!C472)</f>
         <v>RG_118</v>
       </c>
       <c r="B30" s="156">
-        <f>IF($A30="","",'Detalle del Riesgo'!F474)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C30" s="157" t="str">
-        <f>IF($A30="","",LEFT('Detalle del Riesgo'!D479,1))</f>
+        <f>IF($A30="","",LEFT('[1]Detalle del Riesgo'!D479,1))</f>
         <v>N</v>
       </c>
       <c r="D30" s="158" t="str">
-        <f>IF($A30="","",'Detalle del Riesgo'!D472)</f>
+        <f>IF($A30="","",'[1]Detalle del Riesgo'!D472)</f>
         <v>La competencia</v>
       </c>
       <c r="E30" s="159" t="str">
-        <f>IF($A30="","",'Detalle del Riesgo'!C476)</f>
+        <f>IF($A30="","",'[1]Detalle del Riesgo'!C476)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F30" s="157" t="str">
-        <f>IF(OR($A30="",$H30="Retired"),"",'Detalle del Riesgo'!D474)</f>
+        <f>IF(OR($A30="",$H30="Retired"),"",'[1]Detalle del Riesgo'!D474)</f>
         <v>Y</v>
       </c>
       <c r="G30" s="157" t="str">
-        <f>IF($A30="","",'Detalle del Riesgo'!C479)</f>
+        <f>IF($A30="","",'[1]Detalle del Riesgo'!C479)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H30" s="157" t="str">
-        <f>IF($A30= "","",'Detalle del Riesgo'!F472)</f>
+        <f>IF($A30= "","",'[1]Detalle del Riesgo'!F472)</f>
         <v>Investigar</v>
       </c>
       <c r="I30" s="160" t="str">
-        <f>IF($A30= "","",'Detalle del Riesgo'!C474)</f>
+        <f>IF($A30= "","",'[1]Detalle del Riesgo'!C474)</f>
         <v>06/18/16</v>
       </c>
       <c r="J30" s="161" t="str">
-        <f>IF($A30= "","",'Detalle del Riesgo'!F478)</f>
+        <f>IF($A30= "","",'[1]Detalle del Riesgo'!F478)</f>
         <v>06/18/16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="155" t="str">
-        <f>IF(LEFT('Detalle del Riesgo'!D498)="&lt;","",'Detalle del Riesgo'!C498)</f>
+        <f>IF(LEFT('[1]Detalle del Riesgo'!D498)="&lt;","",'[1]Detalle del Riesgo'!C498)</f>
         <v>RG_051</v>
       </c>
       <c r="B31" s="156">
-        <f>IF($A31="","",'Detalle del Riesgo'!F500)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C31" s="157" t="str">
-        <f>IF($A31="","",LEFT('Detalle del Riesgo'!D505,1))</f>
+        <f>IF($A31="","",LEFT('[1]Detalle del Riesgo'!D505,1))</f>
         <v>N</v>
       </c>
       <c r="D31" s="158" t="str">
-        <f>IF($A31="","",'Detalle del Riesgo'!D498)</f>
+        <f>IF($A31="","",'[1]Detalle del Riesgo'!D498)</f>
         <v>Se cuenta con poca memoria ram en algunos equipos de computo</v>
       </c>
       <c r="E31" s="159" t="str">
-        <f>IF($A31="","",'Detalle del Riesgo'!C502)</f>
+        <f>IF($A31="","",'[1]Detalle del Riesgo'!C502)</f>
         <v>Líder del Proyecto</v>
       </c>
       <c r="F31" s="157" t="str">
-        <f>IF(OR($A31="",$H31="Retired"),"",'Detalle del Riesgo'!D500)</f>
+        <f>IF(OR($A31="",$H31="Retired"),"",'[1]Detalle del Riesgo'!D500)</f>
         <v>Y</v>
       </c>
       <c r="G31" s="157" t="str">
-        <f>IF($A31="","",'Detalle del Riesgo'!C505)</f>
+        <f>IF($A31="","",'[1]Detalle del Riesgo'!C505)</f>
         <v>&lt;1 mes</v>
       </c>
       <c r="H31" s="157" t="str">
-        <f>IF($A31= "","",'Detalle del Riesgo'!F498)</f>
+        <f>IF($A31= "","",'[1]Detalle del Riesgo'!F498)</f>
         <v>Investigar</v>
       </c>
       <c r="I31" s="160" t="str">
-        <f>IF($A31= "","",'Detalle del Riesgo'!C500)</f>
+        <f>IF($A31= "","",'[1]Detalle del Riesgo'!C500)</f>
         <v>06/18/16</v>
       </c>
       <c r="J31" s="161" t="str">
-        <f>IF($A31= "","",'Detalle del Riesgo'!F504)</f>
+        <f>IF($A31= "","",'[1]Detalle del Riesgo'!F504)</f>
         <v>06/18/16</v>
       </c>
     </row>
@@ -23051,10 +23863,7 @@
         <f>IF($A35="","",'Detalle del Riesgo'!C606)</f>
         <v/>
       </c>
-      <c r="F35" s="157" t="str">
-        <f>IF(OR($A35="",$H35="Retired"),"",'Detalle del Riesgo'!D604)</f>
-        <v/>
-      </c>
+      <c r="F35" s="157"/>
       <c r="G35" s="157" t="str">
         <f>IF($A35="","",'Detalle del Riesgo'!C609)</f>
         <v/>
@@ -23328,14 +24137,25 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatRows="0" autoFilter="0"/>
   <autoFilter ref="A11:J41"/>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F12:F41 F6:F8">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F32:F41 F6:F8">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F31">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23353,7 +24173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -23399,7 +24219,7 @@
       </c>
       <c r="C12" s="121">
         <f>Resumen!G6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" s="121">
         <f>Resumen!I6</f>
@@ -23407,7 +24227,7 @@
       </c>
       <c r="E12" s="121">
         <f>COUNTIF($H$14:$H$1002,"RMitigar")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" s="121">
         <f>COUNTIF($H$14:$H$1002,"RAceptar")</f>
@@ -23420,7 +24240,7 @@
       </c>
       <c r="C13" s="122">
         <f>Resumen!G7</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="122">
         <f>Resumen!I7</f>
@@ -23469,7 +24289,7 @@
       </c>
       <c r="C15" s="204">
         <f>SUM(C12:C14)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15" s="204">
         <f>SUM(D12:D14)</f>
@@ -23477,7 +24297,7 @@
       </c>
       <c r="E15" s="204">
         <f>SUM(E12:E14)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="204">
         <f>SUM(F12:F14)</f>
@@ -23543,33 +24363,33 @@
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="202" t="e">
+      <c r="H25" s="202" t="str">
         <f>CONCATENATE(Resumen!F23,Resumen!H23)</f>
-        <v>#REF!</v>
+        <v>RPrevenir</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="202" t="str">
         <f>CONCATENATE(Resumen!F24,Resumen!H24)</f>
-        <v/>
+        <v>YPrevenir</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="202" t="str">
         <f>CONCATENATE(Resumen!F25,Resumen!H25)</f>
-        <v/>
+        <v>RMitigar</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="202" t="str">
         <f>CONCATENATE(Resumen!F26,Resumen!H26)</f>
-        <v/>
+        <v>RMitigar</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H29" s="202" t="e">
+      <c r="H29" s="202" t="str">
         <f>CONCATENATE(Resumen!F27,Resumen!H27)</f>
-        <v>#REF!</v>
+        <v>YPrevenir</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
@@ -29413,13 +30233,13 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29566,7 +30386,7 @@
       </c>
       <c r="C5" s="54">
         <f>COUNTIF($C$16:$C$45,"R-N")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="54">
         <f>COUNTIF($D$16:$D$45,"R-M")</f>
@@ -29578,7 +30398,7 @@
       </c>
       <c r="F5" s="55">
         <f>COUNTIF($F$16:$F$45,"R-Abierto")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
@@ -29601,7 +30421,7 @@
       </c>
       <c r="O5" s="107">
         <f>COUNTIF($M$16:$M$45,"Alta - Alta")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P5" s="108">
         <f>COUNTIF($M$16:$M$45,"Alta - Muy alta")</f>
@@ -29645,11 +30465,11 @@
       </c>
       <c r="O6" s="107">
         <f>COUNTIF($M$16:$M$45,"Media - Alta")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P6" s="108">
         <f>COUNTIF($M$16:$M$45,"Media - Muy alta")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="186"/>
       <c r="S6" s="2" t="s">
@@ -29668,7 +30488,7 @@
       </c>
       <c r="C7" s="54">
         <f>COUNTIF($C$16:$C$45,"Y-N")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="54">
         <f>COUNTIF($D$16:$D$45,"Y-M")</f>
@@ -29680,7 +30500,7 @@
       </c>
       <c r="F7" s="55">
         <f>COUNTIF($F$16:$F$45,"Y-Abierto")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="52"/>
@@ -29839,7 +30659,7 @@
       </c>
       <c r="C11" s="43">
         <f>SUM(C5:C9)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="43">
         <f>SUM(D5:D9)</f>
@@ -29851,7 +30671,7 @@
       </c>
       <c r="F11" s="40">
         <f>SUM(F5:F10)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -30770,29 +31590,29 @@
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B27" s="60" t="e">
+      <c r="B27" s="60" t="str">
         <f>Resumen!A23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C27" s="51" t="e">
+        <v>RG_042</v>
+      </c>
+      <c r="C27" s="51" t="str">
         <f>IF(B27="","",CONCATENATE(I27,"-",Resumen!C23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="51" t="e">
+        <v>R-N</v>
+      </c>
+      <c r="D27" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="51" t="e">
+        <v>R-</v>
+      </c>
+      <c r="E27" s="51" t="str">
         <f>IF($B27="","",CONCATENATE(I27,"-",Resumen!H23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="51" t="e">
+        <v>R-Prevenir</v>
+      </c>
+      <c r="F27" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="51" t="e">
+        <v>R-Abierto</v>
+      </c>
+      <c r="G27" s="51" t="str">
         <f>IF(Resumen!H23="Retirar","Cerrado","Abierto")</f>
-        <v>#REF!</v>
+        <v>Abierto</v>
       </c>
       <c r="H27" s="9" t="str">
         <f>IF($B$16="","",IF(OR(ISBLANK('Detalle del Riesgo'!F297),ISTEXT('Detalle del Riesgo'!F297)),"",IF($H$15-'Detalle del Riesgo'!F297&gt;$H$14,"Not Modified","M")))</f>
@@ -30811,9 +31631,9 @@
         <f>'Detalle del Riesgo'!$C296</f>
         <v>Muy alta</v>
       </c>
-      <c r="M27" t="e">
+      <c r="M27" t="str">
         <f>IF(OR(B27="",Resumen!H23="Retired"),"",CONCATENATE(K27," - ",L27))</f>
-        <v>#REF!</v>
+        <v>Media - Muy alta</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -30832,23 +31652,23 @@
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="str">
         <f>Resumen!A24</f>
-        <v/>
+        <v>RG_145</v>
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(B28="","",CONCATENATE(I28,"-",Resumen!C24))</f>
-        <v/>
+        <v>Y-N</v>
       </c>
       <c r="D28" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Y-</v>
       </c>
       <c r="E28" s="51" t="str">
         <f>IF($B28="","",CONCATENATE(I28,"-",Resumen!H24))</f>
-        <v/>
+        <v>Y-Prevenir</v>
       </c>
       <c r="F28" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y-Abierto</v>
       </c>
       <c r="G28" s="51" t="str">
         <f>IF(Resumen!H24="Retirar","Cerrado","Abierto")</f>
@@ -30873,7 +31693,7 @@
       </c>
       <c r="M28" t="str">
         <f>IF(OR(B28="",Resumen!H24="Retired"),"",CONCATENATE(K28," - ",L28))</f>
-        <v/>
+        <v>Media - Alta</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -30892,23 +31712,23 @@
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="str">
         <f>Resumen!A25</f>
-        <v/>
+        <v>RG_121</v>
       </c>
       <c r="C29" s="51" t="str">
         <f>IF(B29="","",CONCATENATE(I29,"-",Resumen!C25))</f>
-        <v/>
+        <v>R-N</v>
       </c>
       <c r="D29" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>R-</v>
       </c>
       <c r="E29" s="51" t="str">
         <f>IF($B29="","",CONCATENATE(I29,"-",Resumen!H25))</f>
-        <v/>
+        <v>R-Mitigar</v>
       </c>
       <c r="F29" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>R-Abierto</v>
       </c>
       <c r="G29" s="51" t="str">
         <f>IF(Resumen!H25="Retirar","Cerrado","Abierto")</f>
@@ -30933,7 +31753,7 @@
       </c>
       <c r="M29" t="str">
         <f>IF(OR(B29="",Resumen!H25="Retired"),"",CONCATENATE(K29," - ",L29))</f>
-        <v/>
+        <v>Alta - Alta</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -30942,23 +31762,23 @@
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="str">
         <f>Resumen!A26</f>
-        <v/>
+        <v>RG_131</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(B30="","",CONCATENATE(I30,"-",Resumen!C26))</f>
-        <v/>
+        <v>R-N</v>
       </c>
       <c r="D30" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>R-</v>
       </c>
       <c r="E30" s="51" t="str">
         <f>IF($B30="","",CONCATENATE(I30,"-",Resumen!H26))</f>
-        <v/>
+        <v>R-Mitigar</v>
       </c>
       <c r="F30" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>R-Abierto</v>
       </c>
       <c r="G30" s="51" t="str">
         <f>IF(Resumen!H26="Retirar","Cerrado","Abierto")</f>
@@ -30983,36 +31803,36 @@
       </c>
       <c r="M30" t="str">
         <f>IF(OR(B30="",Resumen!H26="Retired"),"",CONCATENATE(K30," - ",L30))</f>
-        <v/>
+        <v>Alta - Alta</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="e">
+      <c r="B31" s="60" t="str">
         <f>Resumen!A27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="51" t="e">
+        <v>RG_148</v>
+      </c>
+      <c r="C31" s="51" t="str">
         <f>IF(B31="","",CONCATENATE(I31,"-",Resumen!C27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="51" t="e">
+        <v>Y-N</v>
+      </c>
+      <c r="D31" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="51" t="e">
+        <v>Y-</v>
+      </c>
+      <c r="E31" s="51" t="str">
         <f>IF($B31="","",CONCATENATE(I31,"-",Resumen!H27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="51" t="e">
+        <v>Y-Prevenir</v>
+      </c>
+      <c r="F31" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="51" t="e">
+        <v>Y-Abierto</v>
+      </c>
+      <c r="G31" s="51" t="str">
         <f>IF(Resumen!H27="Retirar","Cerrado","Abierto")</f>
-        <v>#REF!</v>
+        <v>Abierto</v>
       </c>
       <c r="H31" s="9" t="str">
         <f>IF($B$16="","",IF(OR(ISBLANK('Detalle del Riesgo'!F401),ISTEXT('Detalle del Riesgo'!F401)),"",IF($H$15-'Detalle del Riesgo'!F401&gt;$H$14,"Not Modified","M")))</f>
@@ -31031,9 +31851,9 @@
         <f>'Detalle del Riesgo'!$C400</f>
         <v>Alta</v>
       </c>
-      <c r="M31" t="e">
+      <c r="M31" t="str">
         <f>IF(OR(B31="",Resumen!H27="Retired"),"",CONCATENATE(K31," - ",L31))</f>
-        <v>#REF!</v>
+        <v>Media - Alta</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -31042,7 +31862,7 @@
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="str">
         <f>Resumen!A28</f>
-        <v>RG_148</v>
+        <v>RG_095</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(B32="","",CONCATENATE(I32,"-",Resumen!C28))</f>
@@ -31757,24 +32577,24 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I45">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
